--- a/biology/Histoire de la zoologie et de la botanique/Jan_Goedart/Jan_Goedart.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jan_Goedart/Jan_Goedart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jan Goedart (ou Jean Goedart, né en 1617 à Middelburg et mort en 1668) est un peintre néerlandais célèbre pour ses illustrations d'insectes.
 Il publie, dans sa ville natale, un livre intitulé Metamorphosis et historia naturalis insectorum entre 1662 et 1667. Pour la première fois, des insectes sont représentés grâce à la technique de la taille-douce. Il est traduit en français en 1700 sous le titre d’Histoire des insectes.
